--- a/12. Data_Cleaning.xlsx
+++ b/12. Data_Cleaning.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Clone\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28362A21-2A85-4CF7-8296-7DCAB794858D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D3A654-0FBE-4BA9-9ABA-C2F41F5885DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B61E6C35-03EE-4756-985A-9E6AC53240B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B61E6C35-03EE-4756-985A-9E6AC53240B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Concepts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -153,6 +154,218 @@
             <a:t> Technologies</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E77B41EC-5D27-8E9B-1C57-21AAD77A76B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440180" y="342900"/>
+          <a:ext cx="7993380" cy="3512820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Data Cleaning in Excel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t>Excel provides powerful tools to clean and prepare data for analysis:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Remove Duplicates</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → Delete repeated rows/values.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Text to Columns</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → Split combined text into separate columns.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Find &amp; Replace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → Correct spellings, symbols, or unwanted text.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Functions</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → TRIM() (remove spaces), CLEAN() (remove non-printable chars), SUBSTITUTE() (replace text).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Flash Fill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → Auto-fill based on detected patterns.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Data Validation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → Restrict inputs (numbers, dates, dropdowns).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Conditional Formatting</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → Highlight errors, blanks, or outliers.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Power Query</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → Advanced cleaning &amp; transformation of large datasets.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Error Handling</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → IFERROR(), ISERROR(), ISNUMBER(), etc.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Sort &amp; Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> → Identify and remove incorrect or missing values.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t>✅ Use </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>basic tools</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> (Remove Duplicates, TRIM, Replace) for small datasets.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t>✅ Use </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:t>Power Query &amp; Validation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t> for large/complex datasets.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -480,9 +693,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3E67EF-9C73-4B49-9AC4-89D308173E62}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16502130-56B1-41C1-B470-8F803D11E0A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/12. Data_Cleaning.xlsx
+++ b/12. Data_Cleaning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Clone\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D3A654-0FBE-4BA9-9ABA-C2F41F5885DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96261EC-C57E-44E3-AC0C-6DEBFFE0339E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B61E6C35-03EE-4756-985A-9E6AC53240B6}"/>
   </bookViews>
@@ -34,6 +34,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,14 +712,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16502130-56B1-41C1-B470-8F803D11E0A2}">
-  <dimension ref="A1"/>
+  <dimension ref="L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/12. Data_Cleaning.xlsx
+++ b/12. Data_Cleaning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96261EC-C57E-44E3-AC0C-6DEBFFE0339E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897AAE79-959B-4C75-B33A-6441542F43B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B61E6C35-03EE-4756-985A-9E6AC53240B6}"/>
   </bookViews>
@@ -230,7 +230,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-IN" sz="1400" b="1"/>
+            <a:rPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Data Cleaning in Excel</a:t>
           </a:r>
         </a:p>
@@ -715,7 +719,7 @@
   <dimension ref="L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/12. Data_Cleaning.xlsx
+++ b/12. Data_Cleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897AAE79-959B-4C75-B33A-6441542F43B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29497C82-98DA-49CE-AE39-939374EF11B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B61E6C35-03EE-4756-985A-9E6AC53240B6}"/>
   </bookViews>
@@ -373,7 +373,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1400"/>
-            <a:t> for large/complex datasets.</a:t>
+            <a:t> for large/complex </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1200"/>
+            <a:t>dataset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400"/>
+            <a:t>s.</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/12. Data_Cleaning.xlsx
+++ b/12. Data_Cleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29497C82-98DA-49CE-AE39-939374EF11B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DED7CA4-0353-4809-948F-5D4559E5C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B61E6C35-03EE-4756-985A-9E6AC53240B6}"/>
   </bookViews>
@@ -37,9 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -724,17 +727,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16502130-56B1-41C1-B470-8F803D11E0A2}">
-  <dimension ref="L24"/>
+  <dimension ref="L24:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="12:19" x14ac:dyDescent="0.3">
       <c r="L24" t="s">
         <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/12. Data_Cleaning.xlsx
+++ b/12. Data_Cleaning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pande\Desktop\GitHub_Rahul\Me_Mastering_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DED7CA4-0353-4809-948F-5D4559E5C9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55B9BA-7B53-4B44-AF87-AA3931BEAE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B61E6C35-03EE-4756-985A-9E6AC53240B6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -727,15 +727,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16502130-56B1-41C1-B470-8F803D11E0A2}">
-  <dimension ref="L24:S24"/>
+  <dimension ref="J24:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="24" spans="12:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:19" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
       <c r="L24" t="s">
         <v>0</v>
       </c>
